--- a/JupyterNotebook/taptaphot.xlsx
+++ b/JupyterNotebook/taptaphot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\jupytercode\JupyterNotebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7BB29D-C012-4443-88C7-425CC8B9B643}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B8F0C-FD55-4568-9321-0AA201B79D4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
